--- a/skills.xlsx
+++ b/skills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralConfig" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Manager" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="UserProficiency" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="ability" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="config" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="696">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2000,24 +2001,143 @@
   </si>
   <si>
     <t xml:space="preserve">UserProficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgresql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config/database.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some day, could be mysql or other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be your ip address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some day, could also create test and production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">database_username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blog_role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database login, must be set up in database prior to running script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “      needs create database privileges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rails.application.secrets.mail_username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config/environments/development.rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credentials for mail server, not automatically used right now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rails.application.secrets.mail_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smtp.gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enable_starttls_auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparton.clinic1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config/secrets.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email (and other apps) will fish secrets from here. Should not be put into VCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terces123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="[HH]:MM:SS.00"/>
     <numFmt numFmtId="167" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2046,6 +2166,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2092,7 +2219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2121,6 +2248,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2145,9 +2292,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2191,14 +2335,13 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="30.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="29.4642857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2397,250 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:15"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="41.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="32.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="72.8163265306123"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="7" width="11.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.7244897959184"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>587</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="sparton.clinic1@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2274,9 +2660,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2715,7 +3098,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2735,9 +3118,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2862,7 +3242,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2882,9 +3262,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2953,7 +3330,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2973,9 +3350,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3050,7 +3424,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3070,9 +3444,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6036,7 +6407,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6057,11 +6428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.484693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,13 +6545,16 @@
       <c r="J3" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="b">
+      <c r="L3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="b">
+      <c r="M3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6218,13 +6589,16 @@
       <c r="J4" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="b">
+      <c r="L4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="b">
+      <c r="M4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6259,13 +6633,16 @@
       <c r="J5" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K5" s="4" t="b">
+      <c r="K5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="b">
+      <c r="L5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6300,13 +6677,16 @@
       <c r="J6" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K6" s="4" t="b">
+      <c r="K6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="b">
+      <c r="L6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="M6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6341,13 +6721,16 @@
       <c r="J7" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K7" s="4" t="b">
+      <c r="K7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4" t="b">
+      <c r="L7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="M7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6382,13 +6765,16 @@
       <c r="J8" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K8" s="4" t="b">
+      <c r="K8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L8" s="4" t="b">
+      <c r="L8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M8" s="4" t="b">
+      <c r="M8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6423,13 +6809,16 @@
       <c r="J9" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K9" s="4" t="b">
+      <c r="K9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="b">
+      <c r="L9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M9" s="4" t="b">
+      <c r="M9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6464,13 +6853,16 @@
       <c r="J10" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K10" s="4" t="b">
+      <c r="K10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="b">
+      <c r="L10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="b">
+      <c r="M10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6505,13 +6897,16 @@
       <c r="J11" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K11" s="4" t="b">
+      <c r="K11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L11" s="4" t="b">
+      <c r="L11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M11" s="4" t="b">
+      <c r="M11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6546,13 +6941,16 @@
       <c r="J12" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K12" s="4" t="b">
+      <c r="K12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="b">
+      <c r="L12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="b">
+      <c r="M12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6587,13 +6985,16 @@
       <c r="J13" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K13" s="4" t="b">
+      <c r="K13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L13" s="4" t="b">
+      <c r="L13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M13" s="4" t="b">
+      <c r="M13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6628,13 +7029,16 @@
       <c r="J14" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K14" s="4" t="b">
+      <c r="K14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L14" s="4" t="b">
+      <c r="L14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="b">
+      <c r="M14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6669,13 +7073,16 @@
       <c r="J15" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K15" s="4" t="b">
+      <c r="K15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="b">
+      <c r="L15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M15" s="4" t="b">
+      <c r="M15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6710,13 +7117,16 @@
       <c r="J16" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K16" s="4" t="b">
+      <c r="K16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L16" s="4" t="b">
+      <c r="L16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M16" s="4" t="b">
+      <c r="M16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6751,13 +7161,16 @@
       <c r="J17" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K17" s="4" t="b">
+      <c r="K17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L17" s="4" t="b">
+      <c r="L17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M17" s="4" t="b">
+      <c r="M17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6792,13 +7205,16 @@
       <c r="J18" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K18" s="4" t="b">
+      <c r="K18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="b">
+      <c r="L18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M18" s="4" t="b">
+      <c r="M18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6833,13 +7249,16 @@
       <c r="J19" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K19" s="4" t="b">
+      <c r="K19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L19" s="4" t="b">
+      <c r="L19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M19" s="4" t="b">
+      <c r="M19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6874,13 +7293,16 @@
       <c r="J20" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K20" s="4" t="b">
+      <c r="K20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L20" s="4" t="b">
+      <c r="L20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M20" s="4" t="b">
+      <c r="M20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6915,13 +7337,16 @@
       <c r="J21" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K21" s="4" t="b">
+      <c r="K21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L21" s="4" t="b">
+      <c r="L21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M21" s="4" t="b">
+      <c r="M21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6956,13 +7381,16 @@
       <c r="J22" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K22" s="4" t="b">
+      <c r="K22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L22" s="4" t="b">
+      <c r="L22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M22" s="4" t="b">
+      <c r="M22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6997,13 +7425,16 @@
       <c r="J23" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K23" s="4" t="b">
+      <c r="K23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L23" s="4" t="b">
+      <c r="L23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M23" s="4" t="b">
+      <c r="M23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7038,13 +7469,16 @@
       <c r="J24" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K24" s="4" t="b">
+      <c r="K24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L24" s="4" t="b">
+      <c r="L24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M24" s="4" t="b">
+      <c r="M24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7079,13 +7513,16 @@
       <c r="J25" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K25" s="4" t="b">
+      <c r="K25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L25" s="4" t="b">
+      <c r="L25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M25" s="4" t="b">
+      <c r="M25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7120,13 +7557,16 @@
       <c r="J26" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K26" s="4" t="b">
+      <c r="K26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L26" s="4" t="b">
+      <c r="L26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M26" s="4" t="b">
+      <c r="M26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7161,13 +7601,16 @@
       <c r="J27" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K27" s="4" t="b">
+      <c r="K27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L27" s="4" t="b">
+      <c r="L27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M27" s="4" t="b">
+      <c r="M27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7202,13 +7645,16 @@
       <c r="J28" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K28" s="4" t="b">
+      <c r="K28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L28" s="4" t="b">
+      <c r="L28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M28" s="4" t="b">
+      <c r="M28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7243,13 +7689,16 @@
       <c r="J29" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K29" s="4" t="b">
+      <c r="K29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L29" s="4" t="b">
+      <c r="L29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M29" s="4" t="b">
+      <c r="M29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7284,13 +7733,16 @@
       <c r="J30" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K30" s="4" t="b">
+      <c r="K30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L30" s="4" t="b">
+      <c r="L30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M30" s="4" t="b">
+      <c r="M30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7325,13 +7777,16 @@
       <c r="J31" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K31" s="4" t="b">
+      <c r="K31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L31" s="4" t="b">
+      <c r="L31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M31" s="4" t="b">
+      <c r="M31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7366,13 +7821,16 @@
       <c r="J32" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K32" s="4" t="b">
+      <c r="K32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L32" s="4" t="b">
+      <c r="L32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M32" s="4" t="b">
+      <c r="M32" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7407,13 +7865,16 @@
       <c r="J33" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K33" s="4" t="b">
+      <c r="K33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L33" s="4" t="b">
+      <c r="L33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M33" s="4" t="b">
+      <c r="M33" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7448,20 +7909,23 @@
       <c r="J34" s="0" t="n">
         <v>12341234</v>
       </c>
-      <c r="K34" s="4" t="b">
+      <c r="K34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L34" s="4" t="b">
+      <c r="L34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M34" s="4" t="b">
+      <c r="M34" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7481,9 +7945,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7587,7 +8048,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7608,12 +8069,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="206.061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.94897959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="199.632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24647,7 +25107,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
